--- a/src/test/resources/config_access/data.xlsx
+++ b/src/test/resources/config_access/data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PrepaidAutomation\src\test\resources\config_access\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorios\src\test\resources\config_access\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EACF2B-E071-4425-A03A-0D116ED87D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>MSIDN</t>
   </si>
@@ -71,64 +63,73 @@
     <t>http://10.65.45.12:9001/gatewaycbs/BcServicesInt</t>
   </si>
   <si>
+    <t>8957732111198172294</t>
+  </si>
+  <si>
+    <t>3016877411</t>
+  </si>
+  <si>
+    <t>URL DB</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>10.69.60.89</t>
+  </si>
+  <si>
+    <t>DEV11G</t>
+  </si>
+  <si>
+    <t>ACTIVATOR</t>
+  </si>
+  <si>
+    <t>10.69.60.88</t>
+  </si>
+  <si>
+    <t>desepos</t>
+  </si>
+  <si>
+    <t>epos</t>
+  </si>
+  <si>
+    <t>dev10g</t>
+  </si>
+  <si>
+    <t>postsale</t>
+  </si>
+  <si>
+    <t>10.65.32.74</t>
+  </si>
+  <si>
+    <t>siebel04</t>
+  </si>
+  <si>
+    <t>siebel</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
     <t>http://10.65.45.12:9001/gatewaymgint/GatewayMGWSInt</t>
   </si>
   <si>
-    <t>8957732111198172294</t>
-  </si>
-  <si>
-    <t>3016877411</t>
-  </si>
-  <si>
-    <t>URL DB</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>10.69.60.89</t>
-  </si>
-  <si>
-    <t>DEV11G</t>
-  </si>
-  <si>
-    <t>ACTIVATOR</t>
-  </si>
-  <si>
-    <t>10.69.60.88</t>
-  </si>
-  <si>
-    <t>desepos</t>
-  </si>
-  <si>
-    <t>epos</t>
-  </si>
-  <si>
-    <t>dev10g</t>
-  </si>
-  <si>
-    <t>postsale</t>
-  </si>
-  <si>
-    <t>10.65.32.74</t>
-  </si>
-  <si>
-    <t>siebel04</t>
-  </si>
-  <si>
-    <t>siebel</t>
-  </si>
-  <si>
-    <t>service</t>
+    <t>732111198172293</t>
+  </si>
+  <si>
+    <t>3016877412</t>
+  </si>
+  <si>
+    <t>3016876877</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -183,21 +184,21 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -512,241 +513,227 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" customWidth="1"/>
-    <col min="2" max="2" width="40.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.1796875" customWidth="1"/>
-    <col min="5" max="5" width="52.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64.6328125" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="20.54296875" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="38.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="6"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="7"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>3003324</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="5"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="B9" s="6"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="4">
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
         <v>3003324</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3016876876</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="A13" s="1">
+        <v>3003324</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="6:10">
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="A14" s="1">
+        <v>3003324</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
-    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/src/test/resources/config_access/data.xlsx
+++ b/src/test/resources/config_access/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorios\src\test\resources\config_access\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EACF2B-E071-4425-A03A-0D116ED87D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4078918F-2E27-4E93-B788-3E769C658422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>MSIDN</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>3016876877</t>
+  </si>
+  <si>
+    <t>MSI</t>
+  </si>
+  <si>
+    <t>732111198172294</t>
   </si>
 </sst>
 </file>
@@ -517,7 +523,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -670,7 +676,9 @@
       <c r="C10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -688,7 +696,9 @@
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -706,6 +716,9 @@
       <c r="C12" s="1">
         <v>3016876876</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1">
@@ -717,6 +730,9 @@
       <c r="C13" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1">
@@ -727,6 +743,9 @@
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/config_access/data.xlsx
+++ b/src/test/resources/config_access/data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorios\src\test\resources\config_access\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PrepaidAutomation\src\test\resources\config_access\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EACF2B-E071-4425-A03A-0D116ED87D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>MSIDN</t>
   </si>
@@ -48,9 +47,6 @@
     <t>URL GATEWAYCBS</t>
   </si>
   <si>
-    <t>URL GATEWAY MG</t>
-  </si>
-  <si>
     <t>http://10.69.60.77:8180/tigo-pos-web/</t>
   </si>
   <si>
@@ -114,9 +110,6 @@
     <t>service</t>
   </si>
   <si>
-    <t>http://10.65.45.12:9001/gatewaymgint/GatewayMGWSInt</t>
-  </si>
-  <si>
     <t>732111198172293</t>
   </si>
   <si>
@@ -124,12 +117,54 @@
   </si>
   <si>
     <t>3016876877</t>
+  </si>
+  <si>
+    <t>IMSI</t>
+  </si>
+  <si>
+    <t>732111198172294</t>
+  </si>
+  <si>
+    <t>8957732111198172293</t>
+  </si>
+  <si>
+    <t>8957732111198172291</t>
+  </si>
+  <si>
+    <t>8957732111198172290</t>
+  </si>
+  <si>
+    <t>8957732111198172295</t>
+  </si>
+  <si>
+    <t>8957732111198172296</t>
+  </si>
+  <si>
+    <t>3016876873</t>
+  </si>
+  <si>
+    <t>3016877414</t>
+  </si>
+  <si>
+    <t>3016876878</t>
+  </si>
+  <si>
+    <t>732111198172295</t>
+  </si>
+  <si>
+    <t>732111198172296</t>
+  </si>
+  <si>
+    <t>732111198172297</t>
+  </si>
+  <si>
+    <t>732111198172299</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -513,27 +548,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="52.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="38.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="17.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.1796875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -546,121 +577,101 @@
       <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="6"/>
       <c r="C8" s="4"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:10">
+    </row>
+    <row r="9" spans="1:4">
       <c r="B9" s="7"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10">
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -670,72 +681,128 @@
       <c r="C10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="D10" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>3003324</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>3003324</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1">
         <v>3016876876</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="D12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>3003324</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>29</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>3003324</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>32</v>
+      <c r="D14" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>3003324</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>3003324</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>3003324</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>3003324</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>